--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>Server里添加App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把网络有关的全部功能转移到server中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -54,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,9 +81,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -106,10 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -411,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -453,13 +464,18 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,54 @@
   </si>
   <si>
     <t>把网络有关的全部功能转移到server中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestProcesser和App关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离Client，Matcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过Client查询matcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为Client添加ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageProcesser中recv移动到外部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asocket。onClose变为Asocket。onRecv（outline message）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartbeat消息 中断检测 之和服务有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端的Net-App部分也可以放到server项目里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把Client中matcher分离到ClientMgr里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并Client和ASocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由server把app传递给processers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientMgr 线程安全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +126,15 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,11 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -422,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -464,18 +522,78 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -129,15 +129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
@@ -147,6 +138,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -483,7 +482,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -522,22 +521,22 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -557,12 +556,12 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
     </row>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,37 @@
   </si>
   <si>
     <t>ClientMgr 线程安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestProcesser和ClienMgr关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClienMgr绑定asocket，matcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processer。Process（ascoket）</t>
+  </si>
+  <si>
+    <t>Processer。Init（app）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吧Asocket的appproto相关放到client中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clients移动到server中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过ClientMgr调用处理方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内联状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +157,15 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,12 +212,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -479,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -521,22 +562,22 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -556,12 +597,12 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -593,6 +634,46 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,11 +125,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>内联状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>通过ClientMgr调用处理方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内联状态</t>
+    <t>匹配后离线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,18 +666,23 @@
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -110,9 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Processer。Process（ascoket）</t>
-  </si>
-  <si>
     <t>Processer。Init（app）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +131,10 @@
   </si>
   <si>
     <t>匹配后离线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processer。Process（ascoket，msg）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +528,7 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,37 +653,37 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>23</v>
+      <c r="A25" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>Processer。Process（ascoket，msg）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto login 得到 id；使用id 进行匹配，下棋等操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,12 +656,12 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -684,6 +688,11 @@
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为Client添加ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MessageProcesser中recv移动到外部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,31 +110,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>clients移动到server中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内联状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过ClientMgr调用处理方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processer。Process（ascoket，msg）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app请求 login 得到 id；使用id 进行匹配，下棋等操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>吧Asocket的appproto相关放到client中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clients移动到server中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内联状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过ClientMgr调用处理方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匹配后离线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Processer。Process（ascoket，msg）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto login 得到 id；使用id 进行匹配，下棋等操作</t>
+    <t>匹配后离线会有bug吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把msgProcesser交给rsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register变factroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联factroy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,35 +178,51 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -221,13 +249,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -571,48 +601,48 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
@@ -627,7 +657,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
@@ -641,7 +671,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -651,23 +681,23 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
@@ -677,22 +707,37 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>关联factroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>把msgProcesser交给rsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,11 +150,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ClientMgr 移除invoke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>register变factroy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关联factroy</t>
+    <t>移除ClientRsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,15 +227,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -257,7 +256,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -559,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -722,22 +720,35 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
-        <v>32</v>
+      <c r="A33" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,14 @@
   </si>
   <si>
     <t>移除ClientRsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加ConnectProcesser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加StopProcesser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,14 +213,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -222,6 +222,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -557,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,7 +623,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -634,7 +643,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -669,17 +678,17 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -694,17 +703,17 @@
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -719,27 +728,27 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
+      <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
@@ -747,8 +756,18 @@
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ClientMgr 移除invoke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>register变factroy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,6 +163,18 @@
   </si>
   <si>
     <t>添加StopProcesser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientMgr invoke 合并到match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一matchers.TryAdd测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除matcher的socket依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,15 +221,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -234,6 +242,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -257,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -265,6 +280,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -566,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -623,7 +639,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -643,7 +659,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -663,12 +679,12 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -678,17 +694,17 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -703,17 +719,17 @@
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -728,46 +744,56 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>37</v>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,15 +166,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ClientMgr invoke 合并到match</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>统一matchers.TryAdd测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移除matcher的socket依赖</t>
+    <t>调整Inotifier.Start添加ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player。Match player。state=matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player。state=idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player。state=playing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchermgr。Match 添加 Inotify接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchermgr。Login移动到LoginServce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除Matcher仅保留player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离matchermgr为MatcheServce与MatcherRsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除matchermgr.match cancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +266,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -272,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -281,6 +317,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -582,9 +619,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -679,12 +716,12 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -704,7 +741,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -767,9 +804,7 @@
       <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A36" s="4"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
@@ -788,12 +823,52 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -170,6 +170,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分离matchermgr为MatcheServce与MatcherRsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>调整Inotifier.Start添加ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,10 +199,6 @@
   </si>
   <si>
     <t>移除Matcher仅保留player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离matchermgr为MatcheServce与MatcherRsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -210,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,23 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
@@ -308,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,8 +299,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -619,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -631,244 +612,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
+      <c r="A9" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
+      <c r="A10" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
+      <c r="A13" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
+      <c r="A14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="A16" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>15</v>
+      <c r="A17" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>17</v>
+      <c r="A18" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>18</v>
+      <c r="A19" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
-        <v>22</v>
+      <c r="A23" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
+      <c r="A24" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>28</v>
+      <c r="A25" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>24</v>
+      <c r="A28" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
-        <v>46</v>
+      <c r="A44" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
-        <v>45</v>
+      <c r="A45" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>43</v>
+      <c r="A47" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>移除matchermgr.match cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离game&amp;room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game room 变为关联关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +272,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
@@ -291,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,6 +315,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -600,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,12 +674,12 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -844,6 +861,16 @@
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,87 +130,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>匹配后离线会有bug吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联factroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把msgProcesser交给rsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register变factroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除ClientRsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加ConnectProcesser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加StopProcesser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一matchers.TryAdd测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离matchermgr为MatcheServce与MatcherRsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整Inotifier.Start添加ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player。Match player。state=matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player。state=idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player。state=playing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchermgr。Match 添加 Inotify接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchermgr。Login移动到LoginServce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除Matcher仅保留player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除matchermgr.match cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离game&amp;room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game room 变为关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>吧Asocket的appproto相关放到client中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>匹配后离线会有bug吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联factroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把msgProcesser交给rsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register变factroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除ClientRsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加ConnectProcesser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加StopProcesser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一matchers.TryAdd测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离matchermgr为MatcheServce与MatcherRsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整Inotifier.Start添加ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player。Match player。state=matching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>player。state=idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>player。state=playing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchermgr。Match 添加 Inotify接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchermgr。Login移动到LoginServce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除Matcher仅保留player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除matchermgr.match cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离game&amp;room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game room 变为关联关系</t>
+    <t>吧Asocket的onrecv 变为processmgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game room 变为组合关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -715,52 +723,52 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
@@ -815,12 +823,12 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
@@ -830,47 +838,57 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6" t="s">
-        <v>48</v>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,19 +206,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>吧Asocket的appproto相关放到client中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吧Asocket的onrecv 变为processmgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game room 变为组合关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除Iroom。maxPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>game room 变为关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吧Asocket的appproto相关放到client中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吧Asocket的onrecv 变为processmgr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game room 变为组合关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,18 +284,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="9" tint="0.39997558519241921"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -625,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -682,12 +686,12 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -823,7 +827,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
@@ -872,8 +876,8 @@
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
-        <v>50</v>
+      <c r="A48" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
@@ -882,13 +886,18 @@
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>47</v>
+      <c r="A50" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>game room 变为关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖着分层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -786,7 +790,7 @@
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +800,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -898,6 +902,11 @@
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>匹配后离线会有bug吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关联factroy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吧Asocket的appproto相关放到client中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吧Asocket的onrecv 变为processmgr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +219,10 @@
   </si>
   <si>
     <t>竖着分层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并tcpsocket asocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +284,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
@@ -323,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -332,6 +337,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -635,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -690,12 +696,12 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -731,52 +737,52 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
@@ -805,7 +811,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -830,13 +836,8 @@
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>28</v>
+      <c r="A38" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
@@ -846,67 +847,67 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,11 +218,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>竖着分层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合并tcpsocket asocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client关联Serizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server关联Serizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -837,7 +841,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
@@ -906,8 +910,13 @@
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>50</v>
+      <c r="A53" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,22 @@
   </si>
   <si>
     <t>Server关联Serizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machservce 关联app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processer关联servce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play移动到servce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除app内servce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +322,14 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -332,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -342,6 +366,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -643,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -917,6 +942,26 @@
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,10 @@
   </si>
   <si>
     <t>移除app内servce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写客户端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,15 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
@@ -322,14 +317,6 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -356,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,8 +352,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -668,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -725,12 +710,12 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -840,7 +825,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -865,7 +850,7 @@
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -930,7 +915,7 @@
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -960,8 +945,13 @@
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,7 +246,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重写客户端</t>
+    <t>添加AServceProcesser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交操作变成命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +326,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -343,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -352,6 +364,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -653,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -950,8 +963,13 @@
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="8" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,11 +246,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>提交操作变成命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>添加AServceProcesser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交操作变成命令</t>
+    <t>Net依赖于ANetSocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -963,13 +967,18 @@
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="8" t="s">
-        <v>57</v>
+      <c r="A59" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ASocket关联AppProto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AppProto-&gt;ASocket(netproto)?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>app请求 login 得到 id；使用id 进行匹配，下棋等操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关联factroy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合并tcpsocket asocket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Client关联Serizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,6 +243,34 @@
   </si>
   <si>
     <t>Net依赖于ANetSocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aclient 仅保留使用到的方法，如send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>app请求 login 得到 id；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用id 进行匹配，下棋等操作</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,14 +346,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -368,7 +376,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -670,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,302 +690,297 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>2</v>
+      <c r="A29" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>3</v>
+      <c r="A31" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,12 +273,24 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>多线程安全int，float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单线程多线程编译指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +358,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -376,6 +397,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -677,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -981,6 +1003,21 @@
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,26 @@
   </si>
   <si>
     <t>整理文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send功能整合到msgprocesser里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netnotify依赖交给servce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login实现交给servce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iprocesser 移除opcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delayprocesser转换为装饰器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:A67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -991,7 +1011,7 @@
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="A57" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1016,8 +1036,33 @@
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="server" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="拓展" sheetId="2" r:id="rId2"/>
+    <sheet name="rts" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,10 +192,6 @@
   </si>
   <si>
     <t>分离game&amp;room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吧Asocket的onrecv 变为processmgr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,12 +302,48 @@
     <t>delayprocesser转换为装饰器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>吧Asocket的onrecv 变为processmgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作角色移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果游戏开始，创建角色1，2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果游戏开始，通知玩家1，2创建角色1，2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果玩家1输入终点位置1，移动角色1到终点位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果角色1位置发生改变，通知玩家1，2角色1位置改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果玩家1到达结束位置，则玩家1胜利，游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果玩家2到达结束位置，则玩家2胜利，游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻瓜引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +420,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -408,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -418,6 +459,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -719,9 +761,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -867,42 +909,42 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
@@ -922,7 +964,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
@@ -932,7 +974,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
@@ -946,83 +988,83 @@
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>14</v>
+      <c r="A46" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>18</v>
+      <c r="A47" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
-        <v>38</v>
+      <c r="A55" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
-        <v>40</v>
+      <c r="A56" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="8" t="s">
-        <v>44</v>
+      <c r="A57" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>54</v>
+      <c r="A58" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
-        <v>56</v>
+      <c r="A59" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
@@ -1031,12 +1073,12 @@
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1058,11 +1100,6 @@
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1116,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1087,12 +1130,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="80.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,31 +311,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>如果玩家1输入终点位置1，移动角色1到终点位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果角色1位置发生改变，通知玩家1，2角色1位置改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果玩家1到达结束位置，则玩家1胜利，游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果玩家2到达结束位置，则玩家2胜利，游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻瓜引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view range，render，input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如果游戏开始，创建角色1，2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果游戏开始，通知玩家1，2创建角色1，2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果玩家1输入终点位置1，移动角色1到终点位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果角色1位置发生改变，通知玩家1，2角色1位置改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果玩家1到达结束位置，则玩家1胜利，游戏结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果玩家2到达结束位置，则玩家2胜利，游戏结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傻瓜引擎</t>
+    <t>如果游戏开始，设置角色1，2初始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果游戏开始，通知玩家1id1，玩家2id2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果游戏开始，通知玩家1，2创建角色1，2，终点位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果游戏开始，设置终点位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离不同游戏的notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message应该是ValueObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IProcesser泛型&lt;TA&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1147,38 +1175,74 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1194,7 +1258,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,18 @@
   </si>
   <si>
     <t>IProcesser泛型&lt;TA&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从下子的地方开始扫描会快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inotifyer。Send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aclient实现Inotifyer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -1139,15 +1151,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="34.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1180,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -1237,6 +1259,16 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1255,6 +1287,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,10 @@
   </si>
   <si>
     <t>Aclient实现Inotifyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameNotifyer合并方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1180,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1262,13 +1266,18 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,34 @@
   </si>
   <si>
     <t>GameNotifyer合并方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match 转换为playable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分成2个消息，一个是id变化的时候告知客户端id变化，一个是通知消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room加入玩家通知所有玩家加入房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知玩家自己的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charaterid要根据playerid来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match servce 可以去掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一player。Playable的设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1251,7 +1279,7 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1276,8 +1304,43 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="server" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交操作变成命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加AServceProcesser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,11 +240,160 @@
   </si>
   <si>
     <t>aclient 仅保留使用到的方法，如send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程安全int，float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单线程多线程编译指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send功能整合到msgprocesser里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netnotify依赖交给servce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login实现交给servce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iprocesser 移除opcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delayprocesser转换为装饰器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吧Asocket的onrecv 变为processmgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作角色移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果玩家1输入终点位置1，移动角色1到终点位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果角色1位置发生改变，通知玩家1，2角色1位置改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果玩家1到达结束位置，则玩家1胜利，游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果玩家2到达结束位置，则玩家2胜利，游戏结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻瓜引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view range，render，input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果游戏开始，创建角色1，2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果游戏开始，设置角色1，2初始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果游戏开始，通知玩家1，2创建角色1，2，终点位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果游戏开始，设置终点位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离不同游戏的notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message应该是ValueObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IProcesser泛型&lt;TA&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从下子的地方开始扫描会快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inotifyer。Send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aclient实现Inotifyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameNotifyer合并方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match 转换为playable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分成2个消息，一个是id变化的时候告知客户端id变化，一个是通知消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room加入玩家通知所有玩家加入房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知玩家自己的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charaterid要根据playerid来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match servce 可以去掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一player。Playable的设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交操作变成消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果玩家1加入房间，通知玩家1id1，及房间里其他玩家id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果玩家1加入房间，通知其他玩家，玩家1加入房间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="0" tint="-0.249977111117893"/>
         <rFont val="宋体"/>
@@ -260,6 +405,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -271,143 +417,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多线程安全int，float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单线程多线程编译指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send功能整合到msgprocesser里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netnotify依赖交给servce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login实现交给servce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iprocesser 移除opcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delayprocesser转换为装饰器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吧Asocket的onrecv 变为processmgr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作角色移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果玩家1输入终点位置1，移动角色1到终点位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果角色1位置发生改变，通知玩家1，2角色1位置改变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果玩家1到达结束位置，则玩家1胜利，游戏结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果玩家2到达结束位置，则玩家2胜利，游戏结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傻瓜引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view range，render，input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果游戏开始，创建角色1，2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果游戏开始，设置角色1，2初始位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果游戏开始，通知玩家1id1，玩家2id2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果游戏开始，通知玩家1，2创建角色1，2，终点位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果游戏开始，设置终点位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：分离不同游戏的notify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Message应该是ValueObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IProcesser泛型&lt;TA&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从下子的地方开始扫描会快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inotifyer。Send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aclient实现Inotifyer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameNotifyer合并方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>match 转换为playable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分成2个消息，一个是id变化的时候告知客户端id变化，一个是通知消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room加入玩家通知所有玩家加入房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知玩家自己的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charaterid要根据playerid来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>match servce 可以去掉了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一player。Playable的设置</t>
+    <t>如果没有login就match应该返回未登录错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +425,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,17 +494,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -833,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1016,7 +1034,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
@@ -1050,128 +1068,173 @@
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>1</v>
+      <c r="A42" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>2</v>
+      <c r="A43" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
-        <v>12</v>
+      <c r="A44" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>35</v>
+      <c r="A50" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>39</v>
+      <c r="A51" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>37</v>
+      <c r="A53" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>40</v>
+      <c r="A55" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>66</v>
+      <c r="A56" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
-        <v>55</v>
+      <c r="A58" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1264,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1214,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1225,122 +1288,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1365,7 +1393,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,33 +391,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>app请求 login 得到 id；</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>使用id 进行匹配，下棋等操作</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果没有login就match应该返回未登录错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playrequestprocesser可以统一成commitprocesser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app请求 login 得到 id；使用id 进行匹配，下棋等操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离OpCode和Processer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加App继承MsgProcesser，包含connect，serverStop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,15 +494,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -851,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A75"/>
+  <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1113,12 +1094,12 @@
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="9" t="s">
-        <v>93</v>
+      <c r="A51" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1128,113 +1109,128 @@
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
-        <v>39</v>
+      <c r="A54" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
-        <v>36</v>
+      <c r="A55" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>37</v>
+      <c r="A56" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>61</v>
+      <c r="A64" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
-        <v>77</v>
+      <c r="A67" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
-        <v>78</v>
+      <c r="A68" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>84</v>
+      <c r="A70" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>85</v>
+      <c r="A71" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
-        <v>94</v>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,22 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>send功能整合到msgprocesser里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netnotify依赖交给servce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login实现交给servce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iprocesser 移除opcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>delayprocesser转换为装饰器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>room加入玩家通知所有玩家加入房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通知玩家自己的id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,6 +388,18 @@
   </si>
   <si>
     <t>添加App继承MsgProcesser，包含connect，serverStop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏里使用玩家id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除playerid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除player。chess</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,9 +824,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:A79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -1050,12 +1042,12 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
@@ -1095,7 +1087,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
@@ -1109,128 +1101,118 @@
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="9" t="s">
-        <v>94</v>
+      <c r="A54" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="9" t="s">
-        <v>96</v>
+      <c r="A55" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>63</v>
+      <c r="A68" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
-        <v>77</v>
+      <c r="A70" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>83</v>
+      <c r="A72" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
-        <v>87</v>
+      <c r="A76" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1242,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1256,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1284,87 +1266,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1371,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -486,6 +486,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -827,7 +828,7 @@
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1111,7 +1112,7 @@
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1126,17 +1127,17 @@
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="A59" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+      <c r="A60" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="A61" s="9" t="s">
         <v>95</v>
       </c>
     </row>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分成2个消息，一个是id变化的时候告知客户端id变化，一个是通知消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通知玩家自己的id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,6 +396,26 @@
   </si>
   <si>
     <t>移除player。chess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartNotify 分成2个消息，一个是id变化的时候告知客户端id变化，一个是通知消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除player无用方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playing 不可以到 matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matching 可以到cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playing 不可以到 cancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +502,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -825,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1048,7 +1063,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
@@ -1088,7 +1103,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
@@ -1103,17 +1118,17 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
@@ -1123,97 +1138,117 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
-        <v>36</v>
+      <c r="A62" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
-        <v>73</v>
+      <c r="A71" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
-        <v>88</v>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1352,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
@@ -1327,7 +1362,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
@@ -1347,7 +1382,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -423,7 +423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,13 +448,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -528,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -538,7 +531,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -842,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -867,12 +859,12 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -892,27 +884,27 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -922,52 +914,52 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -977,42 +969,42 @@
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1022,17 +1014,17 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1042,17 +1034,17 @@
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1062,7 +1054,7 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1082,7 +1074,7 @@
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1102,12 +1094,12 @@
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1117,82 +1109,82 @@
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1207,7 +1199,7 @@
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1217,12 +1209,12 @@
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1242,12 +1234,12 @@
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1306,27 +1298,27 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1351,37 +1343,37 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>83</v>
       </c>
     </row>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多线程安全int，float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单线程多线程编译指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,6 +412,30 @@
   </si>
   <si>
     <t>playing 不可以到 cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result可以换成player。Notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程安全int，float，集合抽象化（工厂方法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离room game测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message as PlayMessage移动到playmsgpcr泛型中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1050,12 +1070,12 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
@@ -1095,7 +1115,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
@@ -1110,17 +1130,17 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
@@ -1130,27 +1150,27 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
@@ -1170,17 +1190,17 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
@@ -1189,58 +1209,83 @@
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+      <c r="A70" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>95</v>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="3" t="s">
-        <v>87</v>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1315,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1294,87 +1339,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1444,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -515,6 +515,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -854,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1149,7 +1150,7 @@
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1169,7 +1170,7 @@
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="4" t="s">
         <v>95</v>
       </c>
     </row>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>match servce 可以去掉了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>统一player。Playable的设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,6 +432,78 @@
   </si>
   <si>
     <t>message as PlayMessage移动到playmsgpcr泛型中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match servce 如何处理（去掉会使流程耦合，必须先login在match）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用户登录成功，则创建玩家，并返回玩家id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用户请求匹配则通知匹配服务客户匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用户请求取消匹配则通知匹配服务客户取消匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用户请求下棋则通知游戏服务客户下棋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用户请求登录，则通知登录服务用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果创建单机则创建房间，创建玩家，ai玩家加入游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果创建联机则创建网络服务，登录服务，游戏服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果创建单机则创建登录服务，游戏服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过AClient来请求服务，接收服务消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果要创建单机则创建CClient，和Client，Client的send=CCleint的process，CClient的Send=Client。Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离loginservce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process-》clientid-》svcs。Findmatcher。mc（id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process-》clientid-》svcs。Findmatcher。cal（id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process-》svcs。Findlogin。login（client）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>framesync server SyncGame-》combine players input to one frame notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process-》clientid-》svcs。Findgame。commit（id，msg）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>framesync client SyncProcesser-》unpack clinets input -》svcs。Findgame。commit（id，msg）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,15 +921,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A88"/>
+  <dimension ref="A1:A108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="91.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
@@ -1076,7 +1144,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
@@ -1116,7 +1184,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
@@ -1131,17 +1199,17 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
@@ -1150,28 +1218,28 @@
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
-        <v>81</v>
+      <c r="A58" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
@@ -1191,17 +1259,17 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
@@ -1211,17 +1279,17 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
@@ -1256,7 +1324,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
@@ -1271,22 +1339,107 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1483,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1390,7 +1543,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
@@ -1400,7 +1553,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
@@ -1420,7 +1573,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -504,6 +504,10 @@
   </si>
   <si>
     <t>framesync client SyncProcesser-》unpack clinets input -》svcs。Findgame。commit（id，msg）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离gameservce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A108"/>
+  <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1408,7 +1412,7 @@
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1440,6 +1444,11 @@
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单线程多线程编译指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>整理文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,10 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多线程安全int，float，集合抽象化（工厂方法）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CancelMatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,7 +499,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分离gameservce</t>
+    <t>分离playservce 线程安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离playservce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程变单线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,15 +584,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -614,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -623,7 +614,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -925,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A109"/>
+  <dimension ref="A1:A111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1143,12 +1133,12 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
@@ -1188,7 +1178,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
@@ -1203,17 +1193,17 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
@@ -1223,27 +1213,27 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
@@ -1263,17 +1253,17 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
@@ -1283,171 +1273,171 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>114</v>
+      <c r="A101" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="8" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1478,7 +1468,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1502,87 +1492,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1597,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +508,10 @@
   </si>
   <si>
     <t>多线程变单线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aclient变Aconnection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A111"/>
+  <dimension ref="A1:A112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1439,6 +1443,11 @@
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/重构.xlsx
+++ b/重构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Server应该关联ASocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,67 +451,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果创建单机则创建房间，创建玩家，ai玩家加入游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果创建联机则创建网络服务，登录服务，游戏服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>通过AClient来请求服务，接收服务消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果要创建单机则创建CClient，和Client，Client的send=CCleint的process，CClient的Send=Client。Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离loginservce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process-》clientid-》svcs。Findmatcher。mc（id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process-》clientid-》svcs。Findmatcher。cal（id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process-》svcs。Findlogin。login（client）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>framesync server SyncGame-》combine players input to one frame notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process-》clientid-》svcs。Findgame。commit（id，msg）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>framesync client SyncProcesser-》unpack clinets input -》svcs。Findgame。commit（id，msg）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离playservce 线程安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离playservce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程变单线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如果创建单机则创建登录服务，游戏服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过AClient来请求服务，接收服务消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果要创建单机则创建CClient，和Client，Client的send=CCleint的process，CClient的Send=Client。Process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离loginservce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process-》clientid-》svcs。Findmatcher。mc（id）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process-》clientid-》svcs。Findmatcher。cal（id）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process-》svcs。Findlogin。login（client）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>framesync server SyncGame-》combine players input to one frame notify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process-》clientid-》svcs。Findgame。commit（id，msg）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>framesync client SyncProcesser-》unpack clinets input -》svcs。Findgame。commit（id，msg）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离playservce 线程安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离playservce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多线程变单线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aclient变Aconnection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A112"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1315,139 +1307,115 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="4" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
